--- a/forms/Form-3CE_interim-multiple.xlsx
+++ b/forms/Form-3CE_interim-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831728FB-6D6E-482B-9CF3-85D7E1958330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB55D5-2EC4-4F8C-96BD-1535284686FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>Submission information</t>
-  </si>
-  <si>
-    <t>Finalization date</t>
   </si>
   <si>
     <t>Submission date</t>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>1.0.0-interim</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1498,17 +1498,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1524,7 +1524,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1549,7 +1549,7 @@
       <c r="D8" s="95"/>
       <c r="E8" s="10"/>
       <c r="F8" s="95" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="11"/>
@@ -1570,12 +1570,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1592,7 +1592,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1603,7 +1603,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="10"/>
@@ -1632,7 +1632,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1652,7 +1652,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="10"/>
@@ -1663,7 +1663,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1674,7 +1674,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="10"/>
@@ -1703,7 +1703,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1743,7 +1743,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QUsBUhJLAPrqmM/++6RCWZAoeePyBaj7BSgce0BkZhfm3jBR1UzIpTowNk1bBKEKOnuLjslXYwHXAbxnQCD6FA==" saltValue="zBCRGOtvohuj/gv5JBMG8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UVgmbUjwG4zw1a7rj9n6aPsmBHJ+nHzIFkerKcikWW7n9nR+AbDcd2igKeYFt6OO4pwdIMci8rCqh2FXLBSpAg==" saltValue="8ePEBc+jh9UGZJnOvDGZ3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="2" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1951,7 +1951,7 @@
       <c r="R3" s="100"/>
       <c r="S3" s="39"/>
       <c r="T3" s="102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U3" s="103"/>
       <c r="V3" s="103"/>
@@ -2055,24 +2055,24 @@
     </row>
     <row r="4" spans="2:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
       <c r="F4" s="107"/>
       <c r="G4" s="105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
       <c r="J4" s="107"/>
       <c r="K4" s="105" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
@@ -2080,7 +2080,7 @@
       <c r="Q4" s="109"/>
       <c r="R4" s="110"/>
       <c r="S4" s="80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="26"/>
@@ -2185,58 +2185,58 @@
     </row>
     <row r="5" spans="2:119" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="79" t="s">
-        <v>25</v>
+      <c r="O5" s="68" t="s">
+        <v>14</v>
       </c>
-      <c r="J5" s="71" t="s">
-        <v>36</v>
+      <c r="P5" s="65" t="s">
+        <v>24</v>
       </c>
-      <c r="K5" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="68" t="s">
+      <c r="Q5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="67" t="s">
-        <v>20</v>
-      </c>
       <c r="R5" s="66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S5" s="81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T5" s="28"/>
       <c r="U5" s="29"/>

--- a/forms/Form-3CE_interim-multiple.xlsx
+++ b/forms/Form-3CE_interim-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB55D5-2EC4-4F8C-96BD-1535284686FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C638833F-C94E-4D83-A105-A841208D77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1128,6 +1128,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1461,7 +1462,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1575,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="111" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="23"/>
@@ -1743,7 +1744,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UVgmbUjwG4zw1a7rj9n6aPsmBHJ+nHzIFkerKcikWW7n9nR+AbDcd2igKeYFt6OO4pwdIMci8rCqh2FXLBSpAg==" saltValue="8ePEBc+jh9UGZJnOvDGZ3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dcowfDzEpUaWG3cJp5onHd7yWP9R/k0uUdwtdsoSCPb33/EyefRcsLjW/+085lmDY72HZci2yd+svVy90UlW9A==" saltValue="YPXHjCTDITlk0TCOM0o+Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3CE_interim-multiple.xlsx
+++ b/forms/Form-3CE_interim-multiple.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C638833F-C94E-4D83-A105-A841208D77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A491F7-16E4-40AB-B295-D63557F391AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1128,7 +1128,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1462,7 +1461,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="23"/>
